--- a/Dashboards/E8.xlsx
+++ b/Dashboards/E8.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -127,7 +127,7 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>6,3 (5128/814)</x:t>
+    <x:t>6,2 (5322/859)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
@@ -166,10 +166,10 @@
     <x:t>1,0 (4/4)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,6 (160/35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,6 (3455/748)</x:t>
+    <x:t>4,4 (354/80)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (3699/836)</x:t>
   </x:si>
   <x:si>
     <x:t>4,8 (53/11)</x:t>
@@ -205,7 +205,7 @@
     <x:t>3,7 (388/105)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,2 (590/142)</x:t>
+    <x:t>3,6 (834/230)</x:t>
   </x:si>
   <x:si>
     <x:t>3,8 (2569/682)</x:t>
@@ -280,7 +280,7 @@
     <x:t>3,6 (210/58)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,3 (2157/646)</x:t>
+    <x:t>3,4 (2167/646)</x:t>
   </x:si>
   <x:si>
     <x:t>2,8 (85/30)</x:t>
@@ -316,10 +316,10 @@
     <x:t>3,1 (22/7)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,2 (291/92)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,3 (3570/1085)</x:t>
+    <x:t>3,3 (301/92)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (3580/1090)</x:t>
   </x:si>
   <x:si>
     <x:t>3,5 (258/73)</x:t>
@@ -355,10 +355,10 @@
     <x:t>3,4 (240/70)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,0 (10/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (6961/2312)</x:t>
+    <x:t>2,0 (20/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (7058/2377)</x:t>
   </x:si>
   <x:si>
     <x:t>2,5 (483/191)</x:t>
@@ -394,6 +394,9 @@
     <x:t>3,2 (2186/692)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,5 (97/65)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,6 (149/58)</x:t>
   </x:si>
   <x:si>
@@ -436,7 +439,7 @@
     <x:t>12,0 (12/1)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,4 (1860/765)</x:t>
+    <x:t>2,4 (1866/767)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (219/121)</x:t>
@@ -472,7 +475,7 @@
     <x:t>2,0 (125/61)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,6 (38/24)</x:t>
+    <x:t>1,7 (44/26)</x:t>
   </x:si>
   <x:si>
     <x:t>2,4 (775/320)</x:t>
@@ -511,7 +514,7 @@
     <x:t>4,0 (16/4)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,3 (864/377)</x:t>
+    <x:t>2,3 (864/379)</x:t>
   </x:si>
   <x:si>
     <x:t>1,1 (63/56)</x:t>
@@ -538,7 +541,7 @@
     <x:t>1,5 (154/104)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,0 (118/39)</x:t>
+    <x:t>2,9 (118/41)</x:t>
   </x:si>
   <x:si>
     <x:t>2,1 (586/282)</x:t>
@@ -1075,10 +1078,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>18005.6027868589</x:v>
+        <x:v>18503.6676330127</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1526815.33983333</x:v>
+        <x:v>1533290.18283333</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="n">
@@ -1118,7 +1121,7 @@
         <x:v>80.3528333334252</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>6138.88720833324</x:v>
+        <x:v>12613.7302083327</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1126,10 +1129,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>15457.8258942309</x:v>
+        <x:v>15639.1999903847</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>753498.544333334</x:v>
+        <x:v>755856.407583334</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
       <x:c r="F3" s="16" t="n">
@@ -1169,7 +1172,7 @@
         <x:v>55235.9504166669</x:v>
       </x:c>
       <x:c r="R3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2357.8632499997</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1228,10 +1231,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>10139.8063653846</x:v>
+        <x:v>10160.135451923</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>1072376.478</x:v>
+        <x:v>1072640.756125</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="n">
@@ -1271,7 +1274,7 @@
         <x:v>12709.2835833328</x:v>
       </x:c>
       <x:c r="R5" s="16" t="n">
-        <x:v>284.281500000041</x:v>
+        <x:v>548.559624999994</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1330,10 +1333,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>8722.7899198716</x:v>
+        <x:v>9275.40727884598</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>1402852.7948125</x:v>
+        <x:v>1410036.82047916</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="n">
@@ -1373,7 +1376,7 @@
         <x:v>11215.2320416663</x:v>
       </x:c>
       <x:c r="R7" s="16" t="n">
-        <x:v>16070.6108749991</x:v>
+        <x:v>23254.636541666</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1381,10 +1384,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>7046.13864903858</x:v>
+        <x:v>7053.79885416678</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>774652.841208335</x:v>
+        <x:v>774752.423875002</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s"/>
       <x:c r="F8" s="16" t="n">
@@ -1424,7 +1427,7 @@
         <x:v>4230.13233333314</x:v>
       </x:c>
       <x:c r="R8" s="16" t="n">
-        <x:v>911.964250000194</x:v>
+        <x:v>1011.54691666691</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1432,10 +1435,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>6365.78333333337</x:v>
+        <x:v>6416.33871474362</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>1632297.42639583</x:v>
+        <x:v>1632954.64635417</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s"/>
       <x:c r="F9" s="16" t="n">
@@ -1475,7 +1478,7 @@
         <x:v>1013.50137499976</x:v>
       </x:c>
       <x:c r="R9" s="16" t="n">
-        <x:v>8744.95129166637</x:v>
+        <x:v>9402.17124999966</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1534,10 +1537,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>3187.48025480768</x:v>
+        <x:v>3188.73497596153</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>284417.302979166</x:v>
+        <x:v>284433.614354166</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s"/>
       <x:c r="F11" s="16" t="n">
@@ -1577,7 +1580,7 @@
         <x:v>6728.1862916667</x:v>
       </x:c>
       <x:c r="R11" s="16" t="n">
-        <x:v>3022.76349999994</x:v>
+        <x:v>3039.07487499993</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -2477,7 +2480,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -2485,7 +2488,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>27</x:v>
@@ -2494,25 +2497,25 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
         <x:v>28</x:v>
@@ -2535,7 +2538,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
         <x:v>27</x:v>
@@ -2553,31 +2556,31 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -2585,7 +2588,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
         <x:v>27</x:v>
@@ -2594,40 +2597,40 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -2635,7 +2638,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
         <x:v>27</x:v>
@@ -2644,40 +2647,40 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -2685,7 +2688,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
         <x:v>27</x:v>
@@ -2697,37 +2700,37 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -2735,7 +2738,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
         <x:v>27</x:v>
@@ -2744,31 +2747,31 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
         <x:v>38</x:v>
@@ -2777,7 +2780,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -2785,7 +2788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
         <x:v>27</x:v>
@@ -2797,37 +2800,37 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -2835,7 +2838,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
         <x:v>27</x:v>
@@ -2844,7 +2847,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
         <x:v>28</x:v>
